--- a/tests/testthat/test_data/96/sameNames.xlsx
+++ b/tests/testthat/test_data/96/sameNames.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shubhamdutta/Documents/tidyplate/tests/testthat/test_data/96/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41430EC8-FD7E-1F47-8937-646105116373}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B4CB797-4052-1B43-96F5-8E66AD93053F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="105">
   <si>
     <t>full</t>
   </si>
@@ -28,33 +28,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A3</t>
-  </si>
-  <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>A5</t>
-  </si>
-  <si>
-    <t>A6</t>
-  </si>
-  <si>
-    <t>A7</t>
-  </si>
-  <si>
-    <t>A8</t>
-  </si>
-  <si>
-    <t>A9</t>
-  </si>
-  <si>
     <t>A10</t>
   </si>
   <si>
@@ -67,33 +40,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>B8</t>
-  </si>
-  <si>
-    <t>B9</t>
-  </si>
-  <si>
     <t>B10</t>
   </si>
   <si>
@@ -106,33 +52,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>C3</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>C5</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>C7</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>C9</t>
-  </si>
-  <si>
     <t>C10</t>
   </si>
   <si>
@@ -145,33 +64,6 @@
     <t>D</t>
   </si>
   <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
     <t>D10</t>
   </si>
   <si>
@@ -184,33 +76,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
     <t>E10</t>
   </si>
   <si>
@@ -223,33 +88,6 @@
     <t>F</t>
   </si>
   <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
     <t>F10</t>
   </si>
   <si>
@@ -262,33 +100,6 @@
     <t>G</t>
   </si>
   <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>G6</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>G8</t>
-  </si>
-  <si>
-    <t>G9</t>
-  </si>
-  <si>
     <t>G10</t>
   </si>
   <si>
@@ -301,33 +112,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
     <t>H10</t>
   </si>
   <si>
@@ -335,6 +119,222 @@
   </si>
   <si>
     <t>H12</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>B01</t>
+  </si>
+  <si>
+    <t>B02</t>
+  </si>
+  <si>
+    <t>B03</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B05</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>B07</t>
+  </si>
+  <si>
+    <t>B08</t>
+  </si>
+  <si>
+    <t>B09</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>C03</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C05</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>C07</t>
+  </si>
+  <si>
+    <t>C08</t>
+  </si>
+  <si>
+    <t>C09</t>
+  </si>
+  <si>
+    <t>D01</t>
+  </si>
+  <si>
+    <t>D02</t>
+  </si>
+  <si>
+    <t>D03</t>
+  </si>
+  <si>
+    <t>D04</t>
+  </si>
+  <si>
+    <t>D05</t>
+  </si>
+  <si>
+    <t>D06</t>
+  </si>
+  <si>
+    <t>D07</t>
+  </si>
+  <si>
+    <t>D08</t>
+  </si>
+  <si>
+    <t>D09</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>E06</t>
+  </si>
+  <si>
+    <t>E07</t>
+  </si>
+  <si>
+    <t>E08</t>
+  </si>
+  <si>
+    <t>E09</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F07</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>G01</t>
+  </si>
+  <si>
+    <t>G02</t>
+  </si>
+  <si>
+    <t>G03</t>
+  </si>
+  <si>
+    <t>G04</t>
+  </si>
+  <si>
+    <t>G05</t>
+  </si>
+  <si>
+    <t>G06</t>
+  </si>
+  <si>
+    <t>G07</t>
+  </si>
+  <si>
+    <t>G08</t>
+  </si>
+  <si>
+    <t>G09</t>
+  </si>
+  <si>
+    <t>H01</t>
+  </si>
+  <si>
+    <t>H02</t>
+  </si>
+  <si>
+    <t>H03</t>
+  </si>
+  <si>
+    <t>H04</t>
+  </si>
+  <si>
+    <t>H05</t>
+  </si>
+  <si>
+    <t>H06</t>
+  </si>
+  <si>
+    <t>H07</t>
+  </si>
+  <si>
+    <t>H08</t>
+  </si>
+  <si>
+    <t>H09</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1178,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1229,327 +1229,327 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="L2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="M2" t="s">
         <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="L4" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="M7" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="M9" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -1598,315 +1598,318 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" t="s">
         <v>2</v>
       </c>
-      <c r="C12" t="s">
+      <c r="L12" t="s">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
       <c r="M12" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="J13" t="s">
-        <v>23</v>
+        <v>50</v>
+      </c>
+      <c r="K13" t="s">
+        <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="M13" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="K14" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="L14" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="K15" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="M16" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I17" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="K17" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="L18" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="M18" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K19" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="L19" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="M19" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
